--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -22,34 +22,34 @@
     <x:t>FName</x:t>
   </x:si>
   <x:si>
+    <x:t>LName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Outcast</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Income</x:t>
+  </x:si>
+  <x:si>
     <x:t>John</x:t>
   </x:si>
   <x:si>
+    <x:t>Galt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hank</x:t>
   </x:si>
   <x:si>
+    <x:t>Rearden</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dagny</x:t>
   </x:si>
   <x:si>
-    <x:t>LName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Galt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rearden</x:t>
-  </x:si>
-  <x:si>
     <x:t>Taggart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Outcast</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Income</x:t>
   </x:si>
   <x:si>
     <x:t>Average:</x:t>
@@ -144,6 +144,40 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -178,9 +212,43 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
       <x:right style="thick">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -188,74 +256,6 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -270,28 +270,28 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -300,7 +300,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -313,35 +313,35 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -353,7 +353,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -677,7 +677,7 @@
     <x:col min="2" max="2" width="9.27" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.55" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -685,87 +685,87 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="12" t="s"/>
-      <x:c r="D2" s="12" t="s"/>
-      <x:c r="E2" s="12" t="s"/>
-      <x:c r="F2" s="11" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="C3" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F3" s="6" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="6" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="3" t="s">
-        <x:v>2</x:v>
+      <x:c r="B4" s="7" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="5">
+      <x:c r="E4" s="8">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="7" t="n">
+      <x:c r="F4" s="9" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="B5" s="7" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="5">
+      <x:c r="E5" s="8">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="7" t="n">
+      <x:c r="F5" s="9" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="3" t="s">
-        <x:v>4</x:v>
+      <x:c r="B6" s="7" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E6" s="5">
+      <x:c r="E6" s="8">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="7" t="n">
+      <x:c r="F6" s="9" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="B7" s="10" t="s"/>
-      <x:c r="C7" s="9" t="s"/>
-      <x:c r="D7" s="9" t="s"/>
-      <x:c r="E7" s="9" t="s">
+      <x:c r="C7" s="11" t="s"/>
+      <x:c r="D7" s="11" t="s"/>
+      <x:c r="E7" s="11" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F7" s="8">
+      <x:c r="F7" s="12">
         <x:f>SUBTOTAL(101,[Income])</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -670,15 +670,14 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.27" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -263,7 +263,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="13">
+  <x:cellStyleXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -303,8 +303,47 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -355,6 +394,42 @@
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -364,7 +439,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F7" totalsRowCount="1">
   <x:autoFilter ref="B3:F6"/>
   <x:tableColumns count="5">
@@ -684,10 +759,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="C2" s="13" t="s"/>
+      <x:c r="D2" s="13" t="s"/>
+      <x:c r="E2" s="13" t="s"/>
+      <x:c r="F2" s="14" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -707,64 +782,64 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="7" t="s">
+      <x:c r="B4" s="15" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="16" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="b">
+      <x:c r="D4" s="16" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="8">
+      <x:c r="E4" s="17">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="9" t="n">
+      <x:c r="F4" s="18" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="7" t="s">
+      <x:c r="B5" s="15" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="16" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="b">
+      <x:c r="D5" s="16" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="8">
+      <x:c r="E5" s="17">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="9" t="n">
+      <x:c r="F5" s="18" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="7" t="s">
+      <x:c r="B6" s="15" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="b">
+      <x:c r="D6" s="16" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E6" s="8">
+      <x:c r="E6" s="17">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="9" t="n">
+      <x:c r="F6" s="18" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="B7" s="10" t="s"/>
-      <x:c r="C7" s="11" t="s"/>
-      <x:c r="D7" s="11" t="s"/>
-      <x:c r="E7" s="11" t="s">
+      <x:c r="B7" s="19" t="s"/>
+      <x:c r="C7" s="20" t="s"/>
+      <x:c r="D7" s="20" t="s"/>
+      <x:c r="E7" s="20" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F7" s="12">
+      <x:c r="F7" s="21">
         <x:f>SUBTOTAL(101,[Income])</x:f>
       </x:c>
     </x:row>
@@ -784,7 +859,7 @@
     <x:firstFooter/>
   </x:headerFooter>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId1"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -263,7 +263,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="26">
+  <x:cellStyleXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -300,18 +300,18 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -321,29 +321,8 @@
     <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -392,44 +371,16 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -741,7 +692,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F7"/>
+  <x:dimension ref="A1:F10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -759,10 +710,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="13" t="s"/>
-      <x:c r="D2" s="13" t="s"/>
-      <x:c r="E2" s="13" t="s"/>
-      <x:c r="F2" s="14" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -782,66 +733,87 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="15" t="s">
+      <x:c r="B4" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="16" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="16" t="b">
+      <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="17">
+      <x:c r="E4" s="8">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="18" t="n">
+      <x:c r="F4" s="9" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="15" t="s">
+      <x:c r="B5" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="16" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D5" s="16" t="b">
+      <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="17">
+      <x:c r="E5" s="8">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="18" t="n">
+      <x:c r="F5" s="9" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="15" t="s">
+      <x:c r="B6" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="16" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="16" t="b">
+      <x:c r="D6" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E6" s="17">
+      <x:c r="E6" s="8">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="18" t="n">
+      <x:c r="F6" s="9" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="B7" s="19" t="s"/>
-      <x:c r="C7" s="20" t="s"/>
-      <x:c r="D7" s="20" t="s"/>
-      <x:c r="E7" s="20" t="s">
+      <x:c r="B7" s="10" t="s"/>
+      <x:c r="C7" s="11" t="s"/>
+      <x:c r="D7" s="11" t="s"/>
+      <x:c r="E7" s="12" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F7" s="21">
+      <x:c r="F7" s="13">
         <x:f>SUBTOTAL(101,[Income])</x:f>
       </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="8" t="s"/>
+      <x:c r="F8" s="14" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="8" t="s"/>
+      <x:c r="F9" s="14" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="8" t="s"/>
+      <x:c r="F10" s="14" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -822,14 +822,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="1">
     <x:tablePart r:id="rId1"/>
   </x:tableParts>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -699,11 +699,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -699,10 +699,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -263,7 +263,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="19">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -306,9 +306,6 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -322,7 +319,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -376,10 +373,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -692,18 +685,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F10"/>
+  <x:dimension ref="A1:F7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
@@ -793,27 +786,6 @@
       <x:c r="F7" s="13">
         <x:f>SUBTOTAL(101,[Income])</x:f>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="8" t="s"/>
-      <x:c r="F8" s="14" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="8" t="s"/>
-      <x:c r="F9" s="14" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="8" t="s"/>
-      <x:c r="F10" s="14" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -796,7 +796,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
+    <x:tablePart r:id="rId8"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -63,7 +63,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -84,6 +84,13 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF00008B"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,7 +694,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -699,11 +699,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -154,7 +154,7 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thick">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thick">
@@ -171,7 +171,7 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thick">
+      <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thick">
@@ -710,10 +710,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="3" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -271,115 +271,115 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="18">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="14">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -61,7 +61,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -298,7 +298,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -310,7 +310,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -363,7 +363,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -379,7 +379,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
